--- a/cache/daily/ch/202005230000..xlsx
+++ b/cache/daily/ch/202005230000..xlsx
@@ -7420,7 +7420,9 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>307</v>
+      </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
@@ -14139,7 +14141,9 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>23</v>
+      </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
@@ -35133,7 +35137,9 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>284</v>
+      </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>

--- a/cache/daily/ch/202005230000..xlsx
+++ b/cache/daily/ch/202005230000..xlsx
@@ -7405,7 +7405,9 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>1878</v>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -7431,7 +7433,7 @@
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>30654</v>
+        <v>30658</v>
       </c>
     </row>
   </sheetData>
@@ -14126,7 +14128,9 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>96</v>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -20441,7 +20445,9 @@
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>20</v>
+      </c>
       <c r="F89" t="n">
         <v>2</v>
       </c>
@@ -20483,7 +20489,7 @@
         <v>31</v>
       </c>
       <c r="AB89" t="n">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90">
@@ -20519,7 +20525,7 @@
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -26006,7 +26012,9 @@
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
@@ -30487,7 +30495,9 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
